--- a/Simulación penalización IPF-Tablas.xlsx
+++ b/Simulación penalización IPF-Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sysadmit0-my.sharepoint.com/personal/pol_sysadmit_com/Documents/GitRepos/CJ/Simulaciion penalizacion IPF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D73A472-AB4B-4BA9-8A86-6A27A00F8BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{3D73A472-AB4B-4BA9-8A86-6A27A00F8BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F253C78E-0E69-4D8B-893C-8C4D734BEFAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>Importe</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>Columna2</t>
+  </si>
+  <si>
+    <t>Ordinaria</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>Coyuntural</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -429,10 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -518,6 +528,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -563,13 +580,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -586,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77B3F4CF-93D3-4463-9A99-127F7C4A3A62}" name="Tabla1" displayName="Tabla1" ref="A1:B23" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77B3F4CF-93D3-4463-9A99-127F7C4A3A62}" name="Tabla1" displayName="Tabla1" ref="A1:B23" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:B23" xr:uid="{77B3F4CF-93D3-4463-9A99-127F7C4A3A62}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{28FAB4CC-3056-4F09-8E86-30D2452AD1C3}" name="Columna1"/>
@@ -597,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B30F3-9708-4F09-AD4C-9C28C0F085E6}" name="Tabla2" displayName="Tabla2" ref="D1:E23" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B30F3-9708-4F09-AD4C-9C28C0F085E6}" name="Tabla2" displayName="Tabla2" ref="D1:E23" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="D1:E23" xr:uid="{8A4B30F3-9708-4F09-AD4C-9C28C0F085E6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2FA59BD8-EAAB-49C8-8FA8-08FA41F8AB52}" name="Columna1"/>
@@ -608,7 +618,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58A98A4D-13C5-47FF-8DBB-9033EF4BDBB2}" name="Tabla3" displayName="Tabla3" ref="G1:H23" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58A98A4D-13C5-47FF-8DBB-9033EF4BDBB2}" name="Tabla3" displayName="Tabla3" ref="G1:H23" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="G1:H23" xr:uid="{58A98A4D-13C5-47FF-8DBB-9033EF4BDBB2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7BADCE58-8319-4D9C-AF66-AEA0F7487E45}" name="Columna1"/>
@@ -619,7 +629,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{679C4C6B-402B-4FFC-80FE-4F7A2E00033B}" name="Tabla4" displayName="Tabla4" ref="J1:K23" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{679C4C6B-402B-4FFC-80FE-4F7A2E00033B}" name="Tabla4" displayName="Tabla4" ref="J1:K23" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="J1:K23" xr:uid="{679C4C6B-402B-4FFC-80FE-4F7A2E00033B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{45754C31-8FB7-4BE5-B62D-4D65AB9EADE3}" name="Columna1"/>
@@ -938,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1216,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45152</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1441,7 +1451,7 @@
       </c>
       <c r="B11" s="2">
         <f>+B9-B5</f>
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1464,7 +1474,7 @@
       </c>
       <c r="B12" s="2">
         <f>+B6-B9</f>
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1483,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -1510,7 +1520,7 @@
       </c>
       <c r="B15" s="1">
         <f>+B4*B14*B11/365</f>
-        <v>291.50684931506851</v>
+        <v>1764.3835616438357</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1575,7 +1585,7 @@
       </c>
       <c r="B18" s="1">
         <f>+B15*B17</f>
-        <v>58.301369863013704</v>
+        <v>352.87671232876716</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1631,7 +1641,7 @@
       </c>
       <c r="B21" s="1">
         <f>+B4*B12*B20/365</f>
-        <v>410.41095890410958</v>
+        <v>349.04109589041099</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1661,7 +1671,7 @@
       </c>
       <c r="B22" s="1">
         <f>+B15</f>
-        <v>291.50684931506851</v>
+        <v>1764.3835616438357</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1691,7 +1701,7 @@
       </c>
       <c r="B23" s="8">
         <f>+IF(B21&gt;B22,+B22,+B21)</f>
-        <v>291.50684931506851</v>
+        <v>349.04109589041099</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1716,28 +1726,28 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1745,21 +1755,21 @@
       <c r="A26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="1">
         <f>+B4</f>
         <v>70000</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="1">
         <f>+E4</f>
         <v>70000</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="1">
         <f>+H4</f>
         <v>70000</v>
       </c>
@@ -1767,7 +1777,7 @@
       <c r="J26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="1">
         <f>+K10</f>
         <v>35000</v>
       </c>
@@ -1776,21 +1786,21 @@
       <c r="A27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="1">
         <f>+B15</f>
-        <v>291.50684931506851</v>
+        <v>1764.3835616438357</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="1">
         <f>+E15</f>
         <v>350.95890410958901</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="1">
         <f>+H15</f>
         <v>352.8767123287671</v>
       </c>
@@ -1798,7 +1808,7 @@
       <c r="J27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="1">
         <f>+K16</f>
         <v>176.43835616438355</v>
       </c>
@@ -1807,21 +1817,21 @@
       <c r="A28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="1">
         <f>-B18</f>
-        <v>-58.301369863013704</v>
+        <v>-352.87671232876716</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="1">
         <f>-E18</f>
         <v>-70.191780821917803</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="1">
         <f>-H18</f>
         <v>-70.575342465753423</v>
       </c>
@@ -1829,7 +1839,7 @@
       <c r="J28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="1">
         <f>-K18</f>
         <v>-35.287671232876711</v>
       </c>
@@ -1838,21 +1848,21 @@
       <c r="A29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="1">
         <f>-B23</f>
-        <v>-291.50684931506851</v>
+        <v>-349.04109589041099</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="1">
         <f>-E23</f>
         <v>-250.68493150684932</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="1">
         <f>-H23</f>
         <v>-352.8767123287671</v>
       </c>
@@ -1860,32 +1870,56 @@
       <c r="J29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="1">
         <f>-K23</f>
         <v>-176.43835616438355</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <f>+SUM(B26:B29)</f>
-        <v>69941.698630136991</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27">
+        <v>71062.465753424651</v>
+      </c>
+      <c r="E30" s="25">
         <f>+SUM(E26:E29)</f>
         <v>70030.082191780821</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27">
+      <c r="H30" s="25">
         <f>+SUM(H26:H29)</f>
         <v>69929.42465753424</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27">
+      <c r="K30" s="25">
         <f>+SUM(K26:K29)</f>
         <v>34964.71232876712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Simulación penalización IPF-Tablas.xlsx
+++ b/Simulación penalización IPF-Tablas.xlsx
@@ -1938,4 +1938,236 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010088AA26CB4392814A81F7F3FEEFBEF3EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b3e3d31e45b3e4623361e91b2ec0a6c5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb833343-52d4-484d-af88-53ddbb839ece" xmlns:ns3="b8f3767f-412f-4b30-86af-4757020ab144" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da3971a4b15f0a52477b43b3d28cdb6c" ns2:_="" ns3:_="">
+    <xsd:import namespace="cb833343-52d4-484d-af88-53ddbb839ece"/>
+    <xsd:import namespace="b8f3767f-412f-4b30-86af-4757020ab144"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cb833343-52d4-484d-af88-53ddbb839ece" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c865f357-31a6-4055-87e1-642cfb6ba806" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8f3767f-412f-4b30-86af-4757020ab144" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dc3cb01a-d9c4-450a-a8b1-451741096a02}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b8f3767f-412f-4b30-86af-4757020ab144">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE8BDDAE-86AC-479F-93BA-30C9228552B8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B854B66-2B1A-45A1-A166-AA772E040279}"/>
 </file>